--- a/biology/Médecine/Max_Nonne/Max_Nonne.xlsx
+++ b/biology/Médecine/Max_Nonne/Max_Nonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Nonne, né le 31 janvier 1861 à Hambourg, décédé en 1959 est un médecin neurologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Sa carrière résumée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine à l'université de Heidelberg, de Fribourg-en-Brisgau, et de Berlin. Il obtient son doctorat à l'université de Hambourg en 1884. Il travaille sous la direction de Wilhelm Erb comme médecin assistant à la clinique médicale d'Heidelberg, puis collabore avec Johannes Friedrich August von Esmarch à la clinique de chirurgie de Kiel. En 1889 il s'installe comme neurologue en pratique privée à Hambourg. La même année, il devient médecin-chef du département de médecine interne à l'hôpital de la Croix-Rouge. En 1896 il prend le poste de directeur du département de neurologie à l'hôpital universitaire d'Hambourg-Eppendorf (de), dans le quartier d'Eppendorf.
 Nonne est nommé professeur titulaire de neurologie en 1913 et en 1919 responsable de l'enseignement de neurologie à l'université de Hambourg récemment fondée. Il y est nommé professeur ordinaire 1925.
@@ -544,7 +558,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réaction de Nonne-Apelt : une méthode sensible pour démontrer la présence de fibrine dans le liquide céphalo-rachidien.
 Maladie de Nonne-Milroy-Meige : une forme chronique familiale de lymphœdème des membres.</t>
